--- a/src/path_planning/test_scripts/BotRoute.xlsx
+++ b/src/path_planning/test_scripts/BotRoute.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\stevencraig147\catkin_ws\src\path_planning\test_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC38C258-13EF-45C8-837E-E320B5B4F57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BE4B9D44-F825-49B5-94D1-EE87E4D77301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/src/path_planning/test_scripts/BotRoute.xlsx
+++ b/src/path_planning/test_scripts/BotRoute.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\stevencraig147\catkin_ws\src\path_planning\test_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BE4B9D44-F825-49B5-94D1-EE87E4D77301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AE710638-D390-4173-B1B2-DD6205A15548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="2964" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Objects" sheetId="1" r:id="rId1"/>
+    <sheet name="Route" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -385,9 +386,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C92B04-6E50-4ECE-903F-66907C01EC21}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
